--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N2">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q2">
-        <v>39.857104601107</v>
+        <v>15.56713945457689</v>
       </c>
       <c r="R2">
-        <v>358.713941409963</v>
+        <v>140.104255091192</v>
       </c>
       <c r="S2">
-        <v>0.003283982288791891</v>
+        <v>0.002452293157787372</v>
       </c>
       <c r="T2">
-        <v>0.003283982288791891</v>
+        <v>0.002452293157787372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q3">
-        <v>19.06888500566944</v>
+        <v>23.03845998091944</v>
       </c>
       <c r="R3">
-        <v>171.619965051025</v>
+        <v>207.346139828275</v>
       </c>
       <c r="S3">
-        <v>0.001571159803311163</v>
+        <v>0.003629251086368104</v>
       </c>
       <c r="T3">
-        <v>0.001571159803311163</v>
+        <v>0.003629251086368105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N4">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q4">
-        <v>5.780818217718</v>
+        <v>5.694760376847111</v>
       </c>
       <c r="R4">
-        <v>52.027363959462</v>
+        <v>51.252843391624</v>
       </c>
       <c r="S4">
-        <v>0.0004763041578585753</v>
+        <v>0.000897096216561155</v>
       </c>
       <c r="T4">
-        <v>0.0004763041578585753</v>
+        <v>0.0008970962165611551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N5">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q5">
-        <v>12.99214611480955</v>
+        <v>8.563832573822555</v>
       </c>
       <c r="R5">
-        <v>116.929315033286</v>
+        <v>77.07449316440299</v>
       </c>
       <c r="S5">
-        <v>0.00107047358711666</v>
+        <v>0.001349061469289219</v>
       </c>
       <c r="T5">
-        <v>0.00107047358711666</v>
+        <v>0.00134906146928922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N6">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q6">
-        <v>61.88229060357301</v>
+        <v>20.00512665028533</v>
       </c>
       <c r="R6">
-        <v>556.9406154321571</v>
+        <v>180.046139852568</v>
       </c>
       <c r="S6">
-        <v>0.005098723260654572</v>
+        <v>0.003151409759532981</v>
       </c>
       <c r="T6">
-        <v>0.005098723260654571</v>
+        <v>0.003151409759532981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q7">
         <v>29.60642262444167</v>
@@ -883,10 +883,10 @@
         <v>266.457803619975</v>
       </c>
       <c r="S7">
-        <v>0.002439388623589421</v>
+        <v>0.004663902950206655</v>
       </c>
       <c r="T7">
-        <v>0.00243938862358942</v>
+        <v>0.004663902950206655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N8">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q8">
-        <v>8.975320120602001</v>
+        <v>7.318261837010668</v>
       </c>
       <c r="R8">
-        <v>80.777881085418</v>
+        <v>65.864356533096</v>
       </c>
       <c r="S8">
-        <v>0.0007395116280342108</v>
+        <v>0.001152846576737081</v>
       </c>
       <c r="T8">
-        <v>0.0007395116280342107</v>
+        <v>0.00115284657673708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N9">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q9">
-        <v>20.17165495303934</v>
+        <v>11.00526887107633</v>
       </c>
       <c r="R9">
-        <v>181.544894577354</v>
+        <v>99.04741983968701</v>
       </c>
       <c r="S9">
-        <v>0.001662021320022392</v>
+        <v>0.001733661192597339</v>
       </c>
       <c r="T9">
-        <v>0.001662021320022391</v>
+        <v>0.001733661192597339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N10">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q10">
-        <v>91.106422950866</v>
+        <v>22.44129384025067</v>
       </c>
       <c r="R10">
-        <v>819.9578065577941</v>
+        <v>201.971644562256</v>
       </c>
       <c r="S10">
-        <v>0.007506613497396827</v>
+        <v>0.003535179439801478</v>
       </c>
       <c r="T10">
-        <v>0.007506613497396827</v>
+        <v>0.003535179439801479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.951025</v>
       </c>
       <c r="O11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q11">
-        <v>43.58816125543889</v>
+        <v>33.21180821738334</v>
       </c>
       <c r="R11">
-        <v>392.29345129895</v>
+        <v>298.9062739564501</v>
       </c>
       <c r="S11">
-        <v>0.003591398597475907</v>
+        <v>0.005231859731640674</v>
       </c>
       <c r="T11">
-        <v>0.003591398597475908</v>
+        <v>0.005231859731640675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N12">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q12">
-        <v>13.213947044484</v>
+        <v>8.209458862981336</v>
       </c>
       <c r="R12">
-        <v>118.925523400356</v>
+        <v>73.88512976683201</v>
       </c>
       <c r="S12">
-        <v>0.001088748630725027</v>
+        <v>0.001293236940387724</v>
       </c>
       <c r="T12">
-        <v>0.001088748630725027</v>
+        <v>0.001293236940387724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N13">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q13">
-        <v>29.69779091636311</v>
+        <v>12.34545908377267</v>
       </c>
       <c r="R13">
-        <v>267.280118247268</v>
+        <v>111.109131753954</v>
       </c>
       <c r="S13">
-        <v>0.002446916813492579</v>
+        <v>0.001944781501393863</v>
       </c>
       <c r="T13">
-        <v>0.002446916813492579</v>
+        <v>0.001944781501393863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N14">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q14">
-        <v>6032.959192751466</v>
+        <v>1811.306401962547</v>
       </c>
       <c r="R14">
-        <v>54296.63273476318</v>
+        <v>16301.75761766293</v>
       </c>
       <c r="S14">
-        <v>0.4970790361287249</v>
+        <v>0.285335292919424</v>
       </c>
       <c r="T14">
-        <v>0.4970790361287248</v>
+        <v>0.285335292919424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.951025</v>
       </c>
       <c r="O15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q15">
-        <v>2886.356303143978</v>
+        <v>2680.628009825428</v>
       </c>
       <c r="R15">
-        <v>25977.2067282958</v>
+        <v>24125.65208842885</v>
       </c>
       <c r="S15">
-        <v>0.2378181524606882</v>
+        <v>0.4222796195954519</v>
       </c>
       <c r="T15">
-        <v>0.2378181524606882</v>
+        <v>0.4222796195954519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N16">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q16">
-        <v>875.0118895299362</v>
+        <v>662.6108771186686</v>
       </c>
       <c r="R16">
-        <v>7875.107005769425</v>
+        <v>5963.497894068016</v>
       </c>
       <c r="S16">
-        <v>0.07209564208080552</v>
+        <v>0.1043811629602804</v>
       </c>
       <c r="T16">
-        <v>0.0720956420808055</v>
+        <v>0.1043811629602804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N17">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q17">
-        <v>1966.55246589923</v>
+        <v>996.4402780332002</v>
       </c>
       <c r="R17">
-        <v>17698.97219309307</v>
+        <v>8967.962502298802</v>
       </c>
       <c r="S17">
-        <v>0.1620319271213123</v>
+        <v>0.1569693445025401</v>
       </c>
       <c r="T17">
-        <v>0.1620319271213123</v>
+        <v>0.1569693445025401</v>
       </c>
     </row>
   </sheetData>
